--- a/src/tweetspeak/resources/Parsing Table.xlsx
+++ b/src/tweetspeak/resources/Parsing Table.xlsx
@@ -1403,9 +1403,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,10 +1415,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1697,7 +1697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1708,13 +1708,13 @@
   <dimension ref="A1:DD174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF10" sqref="BF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1874,384 +1874,384 @@
       <c r="BD1" s="7"/>
       <c r="BE1" s="7"/>
       <c r="BF1" s="7"/>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-      <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="2"/>
-      <c r="CO1" s="2"/>
-      <c r="CP1" s="2"/>
-      <c r="CQ1" s="2"/>
-      <c r="CR1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
-      <c r="CV1" s="2"/>
-      <c r="CW1" s="2"/>
-      <c r="CX1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
-      <c r="DD1" s="2"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="8"/>
+      <c r="DC1" s="8"/>
+      <c r="DD1" s="8"/>
     </row>
     <row r="2" spans="1:108">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AM2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AR2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AS2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AT2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AU2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AY2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BA2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BB2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BC2" s="6" t="s">
+      <c r="BC2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BD2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c r="BE2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BF2" s="6" t="s">
+      <c r="BF2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BG2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BH2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="BI2" s="8" t="s">
+      <c r="BI2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BL2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BM2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BN2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BO2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BP2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BR2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="BS2" s="8" t="s">
+      <c r="BS2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="BT2" s="8" t="s">
+      <c r="BT2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BU2" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BV2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BW2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="BX2" s="8" t="s">
+      <c r="BX2" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="BY2" s="8" t="s">
+      <c r="BY2" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="BZ2" s="8" t="s">
+      <c r="BZ2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="CA2" s="8" t="s">
+      <c r="CA2" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="CB2" s="8" t="s">
+      <c r="CB2" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="CC2" s="8" t="s">
+      <c r="CC2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="CD2" s="8" t="s">
+      <c r="CD2" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="CE2" s="8" t="s">
+      <c r="CE2" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="CF2" s="8" t="s">
+      <c r="CF2" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="CG2" s="8" t="s">
+      <c r="CG2" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="CH2" s="8" t="s">
+      <c r="CH2" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="CI2" s="8" t="s">
+      <c r="CI2" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="CJ2" s="8" t="s">
+      <c r="CJ2" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="CK2" s="8" t="s">
+      <c r="CK2" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="CL2" s="8" t="s">
+      <c r="CL2" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="CM2" s="8" t="s">
+      <c r="CM2" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="CN2" s="8" t="s">
+      <c r="CN2" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="CO2" s="8" t="s">
+      <c r="CO2" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="CP2" s="8" t="s">
+      <c r="CP2" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="CQ2" s="8" t="s">
+      <c r="CQ2" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="CR2" s="8" t="s">
+      <c r="CR2" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CS2" s="8" t="s">
+      <c r="CS2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="CT2" s="8" t="s">
+      <c r="CT2" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="CU2" s="8" t="s">
+      <c r="CU2" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="CV2" s="8" t="s">
+      <c r="CV2" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="CW2" s="8" t="s">
+      <c r="CW2" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="CX2" s="8" t="s">
+      <c r="CX2" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="CY2" s="8" t="s">
+      <c r="CY2" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="CZ2" s="8" t="s">
+      <c r="CZ2" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="DA2" s="8" t="s">
+      <c r="DA2" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="DB2" s="8" t="s">
+      <c r="DB2" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="DC2" s="8" t="s">
+      <c r="DC2" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="DD2" s="8" t="s">
+      <c r="DD2" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:108">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2262,15 +2262,15 @@
       </c>
     </row>
     <row r="4" spans="1:108">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:108">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2278,7 +2278,7 @@
       </c>
     </row>
     <row r="6" spans="1:108">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2286,7 +2286,7 @@
       </c>
     </row>
     <row r="7" spans="1:108">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2300,7 +2300,7 @@
       </c>
     </row>
     <row r="8" spans="1:108">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="9" spans="1:108">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="10" spans="1:108">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
       <c r="BF10" s="1" t="s">
@@ -2324,7 +2324,7 @@
       </c>
     </row>
     <row r="11" spans="1:108">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2353,7 +2353,7 @@
       </c>
     </row>
     <row r="12" spans="1:108">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2361,7 +2361,7 @@
       </c>
     </row>
     <row r="13" spans="1:108">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2369,7 +2369,7 @@
       </c>
     </row>
     <row r="14" spans="1:108">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -2485,7 +2485,7 @@
       </c>
     </row>
     <row r="15" spans="1:108">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2547,7 +2547,7 @@
       </c>
     </row>
     <row r="16" spans="1:108">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2609,7 +2609,7 @@
       </c>
     </row>
     <row r="17" spans="1:50">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2671,7 +2671,7 @@
       </c>
     </row>
     <row r="18" spans="1:50">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2733,7 +2733,7 @@
       </c>
     </row>
     <row r="19" spans="1:50">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2795,7 +2795,7 @@
       </c>
     </row>
     <row r="20" spans="1:50">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2857,7 +2857,7 @@
       </c>
     </row>
     <row r="21" spans="1:50">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2919,7 +2919,7 @@
       </c>
     </row>
     <row r="22" spans="1:50">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2981,7 +2981,7 @@
       </c>
     </row>
     <row r="23" spans="1:50">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3043,7 +3043,7 @@
       </c>
     </row>
     <row r="24" spans="1:50">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3105,7 +3105,7 @@
       </c>
     </row>
     <row r="25" spans="1:50">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3167,7 +3167,7 @@
       </c>
     </row>
     <row r="26" spans="1:50">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3229,7 +3229,7 @@
       </c>
     </row>
     <row r="27" spans="1:50">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3291,7 +3291,7 @@
       </c>
     </row>
     <row r="28" spans="1:50">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3353,7 +3353,7 @@
       </c>
     </row>
     <row r="29" spans="1:50">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3415,7 +3415,7 @@
       </c>
     </row>
     <row r="30" spans="1:50">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3474,7 +3474,7 @@
       </c>
     </row>
     <row r="31" spans="1:50">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3533,7 +3533,7 @@
       </c>
     </row>
     <row r="32" spans="1:50">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3592,7 +3592,7 @@
       </c>
     </row>
     <row r="33" spans="1:108">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3651,7 +3651,7 @@
       </c>
     </row>
     <row r="34" spans="1:108">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3710,7 +3710,7 @@
       </c>
     </row>
     <row r="35" spans="1:108">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3769,7 +3769,7 @@
       </c>
     </row>
     <row r="36" spans="1:108">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3831,7 +3831,7 @@
       </c>
     </row>
     <row r="37" spans="1:108">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3893,7 +3893,7 @@
       </c>
     </row>
     <row r="38" spans="1:108">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3955,7 +3955,7 @@
       </c>
     </row>
     <row r="39" spans="1:108">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4017,7 +4017,7 @@
       </c>
     </row>
     <row r="40" spans="1:108">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -4079,7 +4079,7 @@
       </c>
     </row>
     <row r="41" spans="1:108">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4141,7 +4141,7 @@
       </c>
     </row>
     <row r="42" spans="1:108">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4203,7 +4203,7 @@
       </c>
     </row>
     <row r="43" spans="1:108">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4265,7 +4265,7 @@
       </c>
     </row>
     <row r="44" spans="1:108">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4327,7 +4327,7 @@
       </c>
     </row>
     <row r="45" spans="1:108">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4335,7 +4335,7 @@
       </c>
     </row>
     <row r="46" spans="1:108">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -4400,7 +4400,7 @@
       </c>
     </row>
     <row r="47" spans="1:108">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>108</v>
       </c>
       <c r="AY47" s="1" t="s">
@@ -4432,7 +4432,7 @@
       </c>
     </row>
     <row r="48" spans="1:108">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -4494,7 +4494,7 @@
       </c>
     </row>
     <row r="49" spans="1:107">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -4559,7 +4559,7 @@
       </c>
     </row>
     <row r="50" spans="1:107">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4624,7 +4624,7 @@
       </c>
     </row>
     <row r="51" spans="1:107">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4689,7 +4689,7 @@
       </c>
     </row>
     <row r="52" spans="1:107">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4754,7 +4754,7 @@
       </c>
     </row>
     <row r="53" spans="1:107">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4819,7 +4819,7 @@
       </c>
     </row>
     <row r="54" spans="1:107">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4884,7 +4884,7 @@
       </c>
     </row>
     <row r="55" spans="1:107">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4949,7 +4949,7 @@
       </c>
     </row>
     <row r="56" spans="1:107">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -5014,7 +5014,7 @@
       </c>
     </row>
     <row r="57" spans="1:107">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -5022,7 +5022,7 @@
       </c>
     </row>
     <row r="58" spans="1:107">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -5082,7 +5082,7 @@
       <c r="CW58" s="1">
         <v>123</v>
       </c>
-      <c r="DB58" s="4" t="s">
+      <c r="DB58" s="3" t="s">
         <v>359</v>
       </c>
       <c r="DC58" s="1">
@@ -5090,12 +5090,12 @@
       </c>
     </row>
     <row r="59" spans="1:107">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:107">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -5163,12 +5163,12 @@
       </c>
     </row>
     <row r="61" spans="1:107">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:107">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>123</v>
       </c>
       <c r="AM62" s="1" t="s">
@@ -5176,7 +5176,7 @@
       </c>
     </row>
     <row r="63" spans="1:107">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -5184,7 +5184,7 @@
       </c>
     </row>
     <row r="64" spans="1:107">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>125</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -5192,7 +5192,7 @@
       </c>
     </row>
     <row r="65" spans="1:94">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>126</v>
       </c>
       <c r="CC65" s="1">
@@ -5200,7 +5200,7 @@
       </c>
     </row>
     <row r="66" spans="1:94">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I66" s="1" t="s">
@@ -5208,7 +5208,7 @@
       </c>
     </row>
     <row r="67" spans="1:94">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -5270,27 +5270,27 @@
       </c>
     </row>
     <row r="68" spans="1:94">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:94">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:94">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:94">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:94">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>133</v>
       </c>
       <c r="CO72" s="1">
@@ -5298,7 +5298,7 @@
       </c>
     </row>
     <row r="73" spans="1:94">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>134</v>
       </c>
       <c r="CO73" s="1">
@@ -5306,27 +5306,27 @@
       </c>
     </row>
     <row r="74" spans="1:94">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:94">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:94">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:94">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:94">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -5397,7 +5397,7 @@
       </c>
     </row>
     <row r="79" spans="1:94">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>140</v>
       </c>
       <c r="CP79" s="1">
@@ -5405,7 +5405,7 @@
       </c>
     </row>
     <row r="80" spans="1:94">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>141</v>
       </c>
       <c r="CP80" s="1">
@@ -5413,7 +5413,7 @@
       </c>
     </row>
     <row r="81" spans="1:96">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>142</v>
       </c>
       <c r="CP81" s="1">
@@ -5421,7 +5421,7 @@
       </c>
     </row>
     <row r="82" spans="1:96">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -5483,7 +5483,7 @@
       </c>
     </row>
     <row r="83" spans="1:96">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -5545,7 +5545,7 @@
       </c>
     </row>
     <row r="84" spans="1:96">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -5607,22 +5607,22 @@
       </c>
     </row>
     <row r="85" spans="1:96">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:96">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:96">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:96">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -5687,7 +5687,7 @@
       </c>
     </row>
     <row r="89" spans="1:96">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>150</v>
       </c>
       <c r="CR89" s="1">
@@ -5695,7 +5695,7 @@
       </c>
     </row>
     <row r="90" spans="1:96">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>151</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -5757,62 +5757,62 @@
       </c>
     </row>
     <row r="91" spans="1:96">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:96">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:96">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:96">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:96">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:96">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:100">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:100">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:100">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:100">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:100">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:100">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>163</v>
       </c>
       <c r="CS102" s="1">
@@ -5820,7 +5820,7 @@
       </c>
     </row>
     <row r="103" spans="1:100">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>164</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -5882,7 +5882,7 @@
       </c>
     </row>
     <row r="104" spans="1:100">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -5947,7 +5947,7 @@
       </c>
     </row>
     <row r="105" spans="1:100">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="5" t="s">
         <v>166</v>
       </c>
       <c r="CU105" s="1">
@@ -5955,7 +5955,7 @@
       </c>
     </row>
     <row r="106" spans="1:100">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>167</v>
       </c>
       <c r="AO106" s="1" t="s">
@@ -5963,7 +5963,7 @@
       </c>
     </row>
     <row r="107" spans="1:100">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>168</v>
       </c>
       <c r="CV107" s="1">
@@ -5971,7 +5971,7 @@
       </c>
     </row>
     <row r="108" spans="1:100">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="5" t="s">
         <v>169</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -6033,7 +6033,7 @@
       </c>
     </row>
     <row r="109" spans="1:100">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AP109" s="1" t="s">
@@ -6041,7 +6041,7 @@
       </c>
     </row>
     <row r="110" spans="1:100">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="5" t="s">
         <v>171</v>
       </c>
       <c r="CV110" s="1">
@@ -6049,7 +6049,7 @@
       </c>
     </row>
     <row r="111" spans="1:100">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="5" t="s">
         <v>172</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -6111,7 +6111,7 @@
       </c>
     </row>
     <row r="112" spans="1:100">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="5" t="s">
         <v>173</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -6173,7 +6173,7 @@
       </c>
     </row>
     <row r="113" spans="1:101">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>174</v>
       </c>
       <c r="AQ113" s="1" t="s">
@@ -6181,7 +6181,7 @@
       </c>
     </row>
     <row r="114" spans="1:101">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="5" t="s">
         <v>175</v>
       </c>
       <c r="CW114" s="1">
@@ -6189,7 +6189,7 @@
       </c>
     </row>
     <row r="115" spans="1:101">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -6251,7 +6251,7 @@
       </c>
     </row>
     <row r="116" spans="1:101">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="5" t="s">
         <v>177</v>
       </c>
       <c r="AR116" s="1" t="s">
@@ -6259,7 +6259,7 @@
       </c>
     </row>
     <row r="117" spans="1:101">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="5" t="s">
         <v>178</v>
       </c>
       <c r="CW117" s="1">
@@ -6267,7 +6267,7 @@
       </c>
     </row>
     <row r="118" spans="1:101">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -6329,7 +6329,7 @@
       </c>
     </row>
     <row r="119" spans="1:101">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="5" t="s">
         <v>180</v>
       </c>
       <c r="AT119" s="1" t="s">
@@ -6337,7 +6337,7 @@
       </c>
     </row>
     <row r="120" spans="1:101">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="5" t="s">
         <v>181</v>
       </c>
       <c r="CW120" s="1">
@@ -6345,7 +6345,7 @@
       </c>
     </row>
     <row r="121" spans="1:101">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="5" t="s">
         <v>182</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -6407,7 +6407,7 @@
       </c>
     </row>
     <row r="122" spans="1:101">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="5" t="s">
         <v>183</v>
       </c>
       <c r="AU122" s="1" t="s">
@@ -6415,7 +6415,7 @@
       </c>
     </row>
     <row r="123" spans="1:101">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="5" t="s">
         <v>184</v>
       </c>
       <c r="CW123" s="1">
@@ -6423,7 +6423,7 @@
       </c>
     </row>
     <row r="124" spans="1:101">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -6485,7 +6485,7 @@
       </c>
     </row>
     <row r="125" spans="1:101">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -6547,7 +6547,7 @@
       </c>
     </row>
     <row r="126" spans="1:101">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="5" t="s">
         <v>187</v>
       </c>
       <c r="CS126" s="1">
@@ -6555,7 +6555,7 @@
       </c>
     </row>
     <row r="127" spans="1:101">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -6617,7 +6617,7 @@
       </c>
     </row>
     <row r="128" spans="1:101">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="5" t="s">
         <v>189</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -6679,7 +6679,7 @@
       </c>
     </row>
     <row r="129" spans="1:107">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -6741,7 +6741,7 @@
       </c>
     </row>
     <row r="130" spans="1:107">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="5" t="s">
         <v>191</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -6803,7 +6803,7 @@
       </c>
     </row>
     <row r="131" spans="1:107">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -6811,7 +6811,7 @@
       </c>
     </row>
     <row r="132" spans="1:107">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="5" t="s">
         <v>193</v>
       </c>
       <c r="H132" s="1" t="s">
@@ -6819,7 +6819,7 @@
       </c>
     </row>
     <row r="133" spans="1:107">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="5" t="s">
         <v>194</v>
       </c>
       <c r="P133" s="1" t="s">
@@ -6827,7 +6827,7 @@
       </c>
     </row>
     <row r="134" spans="1:107">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="5" t="s">
         <v>195</v>
       </c>
       <c r="I134" s="1" t="s">
@@ -6835,7 +6835,7 @@
       </c>
     </row>
     <row r="135" spans="1:107">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -6897,37 +6897,37 @@
       </c>
     </row>
     <row r="136" spans="1:107">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="5" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="137" spans="1:107">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:107">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="5" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:107">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="5" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="140" spans="1:107">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="141" spans="1:107">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="5" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="142" spans="1:107">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="5" t="s">
         <v>367</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -6987,7 +6987,7 @@
       <c r="CW142" s="1">
         <v>123</v>
       </c>
-      <c r="DB142" s="4" t="s">
+      <c r="DB142" s="3" t="s">
         <v>394</v>
       </c>
       <c r="DC142" s="1">
@@ -6995,7 +6995,7 @@
       </c>
     </row>
     <row r="143" spans="1:107">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="5" t="s">
         <v>368</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -7057,7 +7057,7 @@
       </c>
     </row>
     <row r="144" spans="1:107">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -7065,7 +7065,7 @@
       </c>
     </row>
     <row r="145" spans="1:97">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="5" t="s">
         <v>370</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -7127,7 +7127,7 @@
       </c>
     </row>
     <row r="146" spans="1:97">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="5" t="s">
         <v>371</v>
       </c>
       <c r="CB146" s="1">
@@ -7135,7 +7135,7 @@
       </c>
     </row>
     <row r="147" spans="1:97">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="5" t="s">
         <v>372</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -7197,7 +7197,7 @@
       </c>
     </row>
     <row r="148" spans="1:97">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="5" t="s">
         <v>373</v>
       </c>
       <c r="H148" s="1" t="s">
@@ -7205,7 +7205,7 @@
       </c>
     </row>
     <row r="149" spans="1:97">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="5" t="s">
         <v>374</v>
       </c>
       <c r="CS149" s="1">
@@ -7213,7 +7213,7 @@
       </c>
     </row>
     <row r="150" spans="1:97">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="5" t="s">
         <v>375</v>
       </c>
       <c r="I150" s="1" t="s">
@@ -7224,7 +7224,7 @@
       </c>
     </row>
     <row r="151" spans="1:97">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="5" t="s">
         <v>376</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -7232,15 +7232,15 @@
       </c>
     </row>
     <row r="152" spans="1:97">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="BM152" s="5">
+      <c r="BM152" s="4">
         <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:97">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="5" t="s">
         <v>378</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -7302,7 +7302,7 @@
       </c>
     </row>
     <row r="154" spans="1:97">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="5" t="s">
         <v>379</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -7364,7 +7364,7 @@
       </c>
     </row>
     <row r="155" spans="1:97">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="5" t="s">
         <v>380</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -7372,7 +7372,7 @@
       </c>
     </row>
     <row r="156" spans="1:97">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="5" t="s">
         <v>381</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -7434,7 +7434,7 @@
       </c>
     </row>
     <row r="157" spans="1:97">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="5" t="s">
         <v>382</v>
       </c>
       <c r="H157" s="1" t="s">
@@ -7442,7 +7442,7 @@
       </c>
     </row>
     <row r="158" spans="1:97">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="5" t="s">
         <v>383</v>
       </c>
       <c r="CS158" s="1">
@@ -7450,7 +7450,7 @@
       </c>
     </row>
     <row r="159" spans="1:97">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="5" t="s">
         <v>384</v>
       </c>
       <c r="I159" s="1" t="s">
@@ -7458,7 +7458,7 @@
       </c>
     </row>
     <row r="160" spans="1:97">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="5" t="s">
         <v>385</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -7466,7 +7466,7 @@
       </c>
     </row>
     <row r="161" spans="1:98">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="5" t="s">
         <v>386</v>
       </c>
       <c r="BM161" s="1">
@@ -7477,7 +7477,7 @@
       </c>
     </row>
     <row r="162" spans="1:98">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="5" t="s">
         <v>387</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -7533,7 +7533,7 @@
       </c>
     </row>
     <row r="163" spans="1:98">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="5" t="s">
         <v>388</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -7541,7 +7541,7 @@
       </c>
     </row>
     <row r="164" spans="1:98">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="5" t="s">
         <v>389</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -7597,7 +7597,7 @@
       </c>
     </row>
     <row r="165" spans="1:98">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="5" t="s">
         <v>407</v>
       </c>
       <c r="CT165" s="1">
@@ -7605,47 +7605,47 @@
       </c>
     </row>
     <row r="166" spans="1:98">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="5" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="167" spans="1:98">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="5" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="168" spans="1:98">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="5" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="169" spans="1:98">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="5" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="170" spans="1:98">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="171" spans="1:98">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="5" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="172" spans="1:98">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="5" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="173" spans="1:98">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="5" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="174" spans="1:98">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="5" t="s">
         <v>416</v>
       </c>
     </row>

--- a/src/tweetspeak/resources/Parsing Table.xlsx
+++ b/src/tweetspeak/resources/Parsing Table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="426">
   <si>
     <t>$</t>
   </si>
@@ -234,9 +234,6 @@
     <t>state0</t>
   </si>
   <si>
-    <t>GOTO</t>
-  </si>
-  <si>
     <t>&lt;PROGRAM&gt;</t>
   </si>
   <si>
@@ -1300,16 +1297,13 @@
   </si>
   <si>
     <t>r69</t>
-  </si>
-  <si>
-    <t>ACTION TABLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,8 +1346,15 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1368,19 +1369,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,16 +1401,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1412,22 +1420,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1697,7 +1706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1705,16 +1714,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DD174"/>
+  <dimension ref="A1:DD173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF10" sqref="BF10"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1814,679 +1825,629 @@
     <col min="109" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" ht="30" customHeight="1">
-      <c r="B1" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="8" t="s">
+    <row r="1" spans="1:108">
+      <c r="A1" s="8"/>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="8"/>
-      <c r="BT1" s="8"/>
-      <c r="BU1" s="8"/>
-      <c r="BV1" s="8"/>
-      <c r="BW1" s="8"/>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="8"/>
-      <c r="CA1" s="8"/>
-      <c r="CB1" s="8"/>
-      <c r="CC1" s="8"/>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="8"/>
-      <c r="CF1" s="8"/>
-      <c r="CG1" s="8"/>
-      <c r="CH1" s="8"/>
-      <c r="CI1" s="8"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="8"/>
-      <c r="CL1" s="8"/>
-      <c r="CM1" s="8"/>
-      <c r="CN1" s="8"/>
-      <c r="CO1" s="8"/>
-      <c r="CP1" s="8"/>
-      <c r="CQ1" s="8"/>
-      <c r="CR1" s="8"/>
-      <c r="CS1" s="8"/>
-      <c r="CT1" s="8"/>
-      <c r="CU1" s="8"/>
-      <c r="CV1" s="8"/>
-      <c r="CW1" s="8"/>
-      <c r="CX1" s="8"/>
-      <c r="CY1" s="8"/>
-      <c r="CZ1" s="8"/>
-      <c r="DA1" s="8"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="8"/>
-      <c r="DD1" s="8"/>
+      <c r="BH1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="BP1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="BW1" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BY1" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ1" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="CC1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="CD1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="CH1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="CI1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="CL1" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="CM1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="CN1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CO1" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="CP1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="CQ1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="CR1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="CS1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="CT1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="CU1" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="CV1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="CW1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="CX1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="CY1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="CZ1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="DA1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="DB1" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="DC1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="DD1" s="6" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="2" spans="1:108">
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:108">
+      <c r="A3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:108">
+      <c r="A4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:108">
+      <c r="A5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:108">
+      <c r="A6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BH6" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="BI6" s="1">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+    </row>
+    <row r="7" spans="1:108">
+      <c r="A7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:108">
+      <c r="A8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:108">
+      <c r="A9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:108">
+      <c r="A10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BJ10" s="1">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5" t="s">
+    </row>
+    <row r="11" spans="1:108">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:108">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:108">
+      <c r="A13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="BP13" s="1">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="BQ13" s="1">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="BR13" s="1">
+        <v>14</v>
+      </c>
+      <c r="BS13" s="1">
+        <v>15</v>
+      </c>
+      <c r="BT13" s="1">
         <v>17</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="5" t="s">
+      <c r="BU13" s="1">
         <v>18</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="BV13" s="1">
         <v>19</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="BW13" s="1">
         <v>20</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="BX13" s="1">
         <v>21</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="BY13" s="1">
         <v>22</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="BZ13" s="1">
         <v>23</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="CA13" s="1">
+        <v>43</v>
+      </c>
+      <c r="CD13" s="1">
+        <v>35</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>36</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>34</v>
+      </c>
+      <c r="CJ13" s="1">
+        <v>37</v>
+      </c>
+      <c r="CK13" s="1">
+        <v>38</v>
+      </c>
+      <c r="CL13" s="1">
         <v>24</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="CM13" s="1">
         <v>25</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO2" s="5" t="s">
+      <c r="CX13" s="1">
         <v>39</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="CY13" s="1">
         <v>40</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="CZ13" s="1">
         <v>41</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="DA13" s="1">
         <v>42</v>
       </c>
-      <c r="AS2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="BI2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="BJ2" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK2" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="BM2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="BN2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="BO2" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP2" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="BQ2" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BR2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="BS2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="BT2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BU2" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="BV2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="BW2" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BY2" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="BZ2" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="CA2" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="CB2" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="CC2" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="CD2" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="CE2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="CF2" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="CG2" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="CH2" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="CI2" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="CJ2" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="CK2" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="CL2" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="CM2" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="CN2" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="CO2" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="CP2" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="CQ2" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="CR2" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="CS2" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="CT2" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="CU2" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="CV2" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="CW2" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="CX2" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="CY2" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="CZ2" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="DA2" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="DB2" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="DC2" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="DD2" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:108">
-      <c r="A3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:108">
-      <c r="A4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:108">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:108">
-      <c r="A6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:108">
-      <c r="A7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>5</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:108">
-      <c r="A8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:108">
-      <c r="A9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:108">
-      <c r="A10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF10" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:108">
-      <c r="A11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BJ11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:108">
-      <c r="A12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:108">
-      <c r="A13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="14" spans="1:108">
-      <c r="A14" s="5" t="s">
-        <v>65</v>
+      <c r="A14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>397</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>400</v>
+        <v>255</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>402</v>
+        <v>255</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="BP14" s="1">
-        <v>12</v>
-      </c>
-      <c r="BQ14" s="1">
-        <v>13</v>
-      </c>
-      <c r="BR14" s="1">
-        <v>14</v>
-      </c>
-      <c r="BS14" s="1">
-        <v>15</v>
-      </c>
-      <c r="BT14" s="1">
-        <v>17</v>
-      </c>
-      <c r="BU14" s="1">
-        <v>18</v>
-      </c>
-      <c r="BV14" s="1">
-        <v>19</v>
-      </c>
-      <c r="BW14" s="1">
-        <v>20</v>
-      </c>
-      <c r="BX14" s="1">
-        <v>21</v>
-      </c>
-      <c r="BY14" s="1">
-        <v>22</v>
-      </c>
-      <c r="BZ14" s="1">
-        <v>23</v>
-      </c>
-      <c r="CA14" s="1">
-        <v>43</v>
-      </c>
-      <c r="CD14" s="1">
-        <v>35</v>
-      </c>
-      <c r="CE14" s="1">
-        <v>36</v>
-      </c>
-      <c r="CG14" s="1">
-        <v>34</v>
-      </c>
-      <c r="CJ14" s="1">
-        <v>37</v>
-      </c>
-      <c r="CK14" s="1">
-        <v>38</v>
-      </c>
-      <c r="CL14" s="1">
-        <v>24</v>
-      </c>
-      <c r="CM14" s="1">
-        <v>25</v>
-      </c>
-      <c r="CX14" s="1">
-        <v>39</v>
-      </c>
-      <c r="CY14" s="1">
-        <v>40</v>
-      </c>
-      <c r="CZ14" s="1">
-        <v>41</v>
-      </c>
-      <c r="DA14" s="1">
-        <v>42</v>
+        <v>255</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:108">
-      <c r="A15" s="5" t="s">
-        <v>66</v>
+      <c r="A15" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>256</v>
@@ -2547,8 +2508,8 @@
       </c>
     </row>
     <row r="16" spans="1:108">
-      <c r="A16" s="5" t="s">
-        <v>67</v>
+      <c r="A16" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>257</v>
@@ -2609,8 +2570,8 @@
       </c>
     </row>
     <row r="17" spans="1:50">
-      <c r="A17" s="5" t="s">
-        <v>68</v>
+      <c r="A17" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>258</v>
@@ -2671,8 +2632,8 @@
       </c>
     </row>
     <row r="18" spans="1:50">
-      <c r="A18" s="5" t="s">
-        <v>69</v>
+      <c r="A18" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>259</v>
@@ -2733,7 +2694,7 @@
       </c>
     </row>
     <row r="19" spans="1:50">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2795,7 +2756,7 @@
       </c>
     </row>
     <row r="20" spans="1:50">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2857,7 +2818,7 @@
       </c>
     </row>
     <row r="21" spans="1:50">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2919,7 +2880,7 @@
       </c>
     </row>
     <row r="22" spans="1:50">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2981,7 +2942,7 @@
       </c>
     </row>
     <row r="23" spans="1:50">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3043,7 +3004,7 @@
       </c>
     </row>
     <row r="24" spans="1:50">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3105,7 +3066,7 @@
       </c>
     </row>
     <row r="25" spans="1:50">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3167,7 +3128,7 @@
       </c>
     </row>
     <row r="26" spans="1:50">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3229,69 +3190,69 @@
       </c>
     </row>
     <row r="27" spans="1:50">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:50">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3353,69 +3314,66 @@
       </c>
     </row>
     <row r="29" spans="1:50">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:50">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3474,7 +3432,7 @@
       </c>
     </row>
     <row r="31" spans="1:50">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3533,7 +3491,7 @@
       </c>
     </row>
     <row r="32" spans="1:50">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3592,7 +3550,7 @@
       </c>
     </row>
     <row r="33" spans="1:108">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3651,7 +3609,7 @@
       </c>
     </row>
     <row r="34" spans="1:108">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3710,66 +3668,69 @@
       </c>
     </row>
     <row r="35" spans="1:108">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="AW35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:108">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3831,7 +3792,7 @@
       </c>
     </row>
     <row r="37" spans="1:108">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3893,7 +3854,7 @@
       </c>
     </row>
     <row r="38" spans="1:108">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3955,7 +3916,7 @@
       </c>
     </row>
     <row r="39" spans="1:108">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4017,7 +3978,7 @@
       </c>
     </row>
     <row r="40" spans="1:108">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -4079,7 +4040,7 @@
       </c>
     </row>
     <row r="41" spans="1:108">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4141,7 +4102,7 @@
       </c>
     </row>
     <row r="42" spans="1:108">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4203,7 +4164,7 @@
       </c>
     </row>
     <row r="43" spans="1:108">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4265,236 +4226,239 @@
       </c>
     </row>
     <row r="44" spans="1:108">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AW44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX44" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:108">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="M45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AW45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AX45" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="46" spans="1:108">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="AY46" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="L46" s="1" t="s">
+      <c r="AZ46" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="BA46" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BB46" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BC46" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD46" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BE46" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="DC46" s="1">
+        <v>46</v>
+      </c>
+      <c r="DD46" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:108">
+      <c r="A47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW46" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AX46" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:108">
-      <c r="A47" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AY47" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AZ47" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BA47" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BB47" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BC47" s="1" t="s">
+      <c r="K47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AX47" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:108">
+      <c r="A48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="BD47" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BE47" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="DC47" s="1">
-        <v>46</v>
-      </c>
-      <c r="DD47" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:108">
-      <c r="A48" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="K48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
+      </c>
+      <c r="AL48" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="AW48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AX48" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:107">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -4559,7 +4523,7 @@
       </c>
     </row>
     <row r="50" spans="1:107">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>111</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4624,7 +4588,7 @@
       </c>
     </row>
     <row r="51" spans="1:107">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>112</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4689,7 +4653,7 @@
       </c>
     </row>
     <row r="52" spans="1:107">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4754,7 +4718,7 @@
       </c>
     </row>
     <row r="53" spans="1:107">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4819,7 +4783,7 @@
       </c>
     </row>
     <row r="54" spans="1:107">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="7" t="s">
         <v>115</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4884,7 +4848,7 @@
       </c>
     </row>
     <row r="55" spans="1:107">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4949,479 +4913,476 @@
       </c>
     </row>
     <row r="56" spans="1:107">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AL56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AX56" s="1" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="57" spans="1:107">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV57" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AY57" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ57" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="BA57" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BB57" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BC57" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BD57" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BE57" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="CB57" s="1">
+        <v>57</v>
+      </c>
+      <c r="CN57" s="1">
+        <v>58</v>
+      </c>
+      <c r="CO57" s="1">
+        <v>76</v>
+      </c>
+      <c r="CR57" s="1">
+        <v>59</v>
+      </c>
+      <c r="CS57" s="1">
+        <v>60</v>
+      </c>
+      <c r="CT57" s="1">
+        <v>102</v>
+      </c>
+      <c r="CU57" s="1">
+        <v>104</v>
+      </c>
+      <c r="CV57" s="1">
+        <v>110</v>
+      </c>
+      <c r="CW57" s="1">
+        <v>123</v>
+      </c>
+      <c r="DB57" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="DC57" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:107">
+      <c r="A58" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:107">
+      <c r="A59" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF59" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG59" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX59" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:107">
+      <c r="A60" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:107">
+      <c r="A61" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM61" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:107">
+      <c r="A62" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="58" spans="1:107">
-      <c r="A58" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N58" s="1" t="s">
+    <row r="63" spans="1:107">
+      <c r="A63" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AV58" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AY58" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AZ58" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BA58" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BB58" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BC58" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BD58" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BE58" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="CB58" s="1">
-        <v>57</v>
-      </c>
-      <c r="CN58" s="1">
-        <v>58</v>
-      </c>
-      <c r="CO58" s="1">
-        <v>76</v>
-      </c>
-      <c r="CR58" s="1">
-        <v>59</v>
-      </c>
-      <c r="CS58" s="1">
-        <v>60</v>
-      </c>
-      <c r="CT58" s="1">
-        <v>102</v>
-      </c>
-      <c r="CU58" s="1">
-        <v>104</v>
-      </c>
-      <c r="CV58" s="1">
-        <v>110</v>
-      </c>
-      <c r="CW58" s="1">
-        <v>123</v>
-      </c>
-      <c r="DB58" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="DC58" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:107">
-      <c r="A59" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:107">
-      <c r="A60" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF60" s="1" t="s">
+    </row>
+    <row r="64" spans="1:107">
+      <c r="A64" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC64" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:94">
+      <c r="A65" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:94">
+      <c r="A66" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX66" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:94">
+      <c r="A67" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:94">
+      <c r="A68" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:94">
+      <c r="A69" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:94">
+      <c r="A70" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:94">
+      <c r="A71" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="CO71" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:94">
+      <c r="A72" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO72" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:94">
+      <c r="A73" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:94">
+      <c r="A74" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:94">
+      <c r="A75" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:94">
+      <c r="A76" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:94">
+      <c r="A77" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AG60" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AW60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AX60" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="61" spans="1:107">
-      <c r="A61" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:107">
-      <c r="A62" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM62" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="63" spans="1:107">
-      <c r="A63" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="64" spans="1:107">
-      <c r="A64" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="65" spans="1:94">
-      <c r="A65" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="CC65" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:94">
-      <c r="A66" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="67" spans="1:94">
-      <c r="A67" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="W67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AW67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AX67" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:94">
-      <c r="A68" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:94">
-      <c r="A69" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:94">
-      <c r="A70" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:94">
-      <c r="A71" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:94">
-      <c r="A72" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="CO72" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:94">
-      <c r="A73" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="CO73" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:94">
-      <c r="A74" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:94">
-      <c r="A75" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:94">
-      <c r="A76" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:94">
-      <c r="A77" s="5" t="s">
-        <v>138</v>
+      <c r="K77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH77" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI77" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ77" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AW77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AX77" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:94">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="U78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="V78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="W78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="X78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AD78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AE78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH78" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AI78" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ78" s="1" t="s">
+      <c r="CP78" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:94">
+      <c r="A79" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CP79" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:94">
+      <c r="A80" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP80" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:96">
+      <c r="A81" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AW78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AX78" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="79" spans="1:94">
-      <c r="A79" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="CP79" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:94">
-      <c r="A80" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="CP80" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:96">
-      <c r="A81" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="CP81" s="1">
-        <v>82</v>
+      <c r="K81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AW81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AX81" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:96">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="7" t="s">
         <v>143</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -5483,7 +5444,7 @@
       </c>
     </row>
     <row r="83" spans="1:96">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -5545,282 +5506,282 @@
       </c>
     </row>
     <row r="84" spans="1:96">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:96">
+      <c r="A85" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:96">
+      <c r="A86" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:96">
+      <c r="A87" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="K87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="N87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Q84" s="1" t="s">
+      <c r="Q87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="R84" s="1" t="s">
+      <c r="R87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="S84" s="1" t="s">
+      <c r="S87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="T84" s="1" t="s">
+      <c r="T87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="U84" s="1" t="s">
+      <c r="U87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="V84" s="1" t="s">
+      <c r="V87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="W84" s="1" t="s">
+      <c r="W87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="X84" s="1" t="s">
+      <c r="X87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Y84" s="1" t="s">
+      <c r="Y87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Z84" s="1" t="s">
+      <c r="Z87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AA84" s="1" t="s">
+      <c r="AA87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AD84" s="1" t="s">
+      <c r="AD87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AE84" s="1" t="s">
+      <c r="AE87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AW84" s="1" t="s">
+      <c r="AL87" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AW87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AX84" s="1" t="s">
+      <c r="AX87" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="85" spans="1:96">
-      <c r="A85" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:96">
-      <c r="A86" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:96">
-      <c r="A87" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
     <row r="88" spans="1:96">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="S88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="T88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="U88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="W88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="X88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AE88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AL88" s="1" t="s">
+      <c r="CR88" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:96">
+      <c r="A89" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AW88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AX88" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="89" spans="1:96">
-      <c r="A89" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="CR89" s="1">
-        <v>87</v>
+      <c r="K89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AX89" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:96">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="S90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="T90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="V90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="W90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="X90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AW90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AX90" s="1" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="91" spans="1:96">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:96">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:96">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:96">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:96">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:96">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:100">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:100">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:100">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:100">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:100">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="7" t="s">
         <v>162</v>
       </c>
+      <c r="CS101" s="1">
+        <v>101</v>
+      </c>
     </row>
     <row r="102" spans="1:100">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="CS102" s="1">
-        <v>101</v>
+      <c r="E102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="W102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AW102" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AX102" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="103" spans="1:100">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="7" t="s">
         <v>164</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -5874,6 +5835,9 @@
       <c r="AE103" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="AN103" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="AW103" s="1" t="s">
         <v>337</v>
       </c>
@@ -5882,174 +5846,171 @@
       </c>
     </row>
     <row r="104" spans="1:100">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="R104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="T104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="V104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="W104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="X104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AE104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AN104" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AW104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AX104" s="1" t="s">
-        <v>338</v>
+      <c r="CU104" s="1">
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:100">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="CU105" s="1">
-        <v>128</v>
+      <c r="AO105" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:100">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AO106" s="1" t="s">
+      <c r="CV106" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:100">
+      <c r="A107" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="107" spans="1:100">
-      <c r="A107" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CV107" s="1">
-        <v>106</v>
+      <c r="K107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="W107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="X107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AW107" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AX107" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="108" spans="1:100">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="AP108" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="T108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="U108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="V108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="W108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="X108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Z108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AD108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AW108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AX108" s="1" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="109" spans="1:100">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AP109" s="1" t="s">
+      <c r="CV109" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:100">
+      <c r="A110" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="110" spans="1:100">
-      <c r="A110" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CV110" s="1">
-        <v>109</v>
+      <c r="K110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="W110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AW110" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AX110" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="111" spans="1:100">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="7" t="s">
         <v>172</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -6111,319 +6072,319 @@
       </c>
     </row>
     <row r="112" spans="1:100">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="AQ112" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="S112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="T112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="U112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="V112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="W112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="X112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AW112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AX112" s="1" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="113" spans="1:101">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="AQ113" s="1" t="s">
+      <c r="CW113" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:101">
+      <c r="A114" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="114" spans="1:101">
-      <c r="A114" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="CW114" s="1">
-        <v>113</v>
+      <c r="K114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="X114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AW114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AX114" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:101">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="AR115" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="K115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="R115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="S115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="T115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="U115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="V115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="W115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="X115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AD115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AW115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AX115" s="1" t="s">
-        <v>348</v>
-      </c>
     </row>
     <row r="116" spans="1:101">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AR116" s="1" t="s">
+      <c r="CW116" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:101">
+      <c r="A117" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="117" spans="1:101">
-      <c r="A117" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="CW117" s="1">
-        <v>116</v>
+      <c r="K117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="T117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="W117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AW117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AX117" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:101">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="AT118" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="R118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="S118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="T118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="U118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="V118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="W118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="X118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AW118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AX118" s="1" t="s">
-        <v>350</v>
-      </c>
     </row>
     <row r="119" spans="1:101">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="AT119" s="1" t="s">
+      <c r="CW119" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:101">
+      <c r="A120" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="120" spans="1:101">
-      <c r="A120" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="CW120" s="1">
-        <v>119</v>
+      <c r="K120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="T120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="V120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="W120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="X120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AW120" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX120" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:101">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="AU121" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="R121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="S121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="T121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="U121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="V121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="W121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="X121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AD121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AE121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AW121" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AX121" s="1" t="s">
-        <v>352</v>
-      </c>
     </row>
     <row r="122" spans="1:101">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AU122" s="1" t="s">
+      <c r="CW122" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:101">
+      <c r="A123" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="123" spans="1:101">
-      <c r="A123" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CW123" s="1">
-        <v>122</v>
+      <c r="K123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="T123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="V123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="X123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AX123" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:101">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="7" t="s">
         <v>185</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -6485,77 +6446,77 @@
       </c>
     </row>
     <row r="125" spans="1:101">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="CS125" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:101">
+      <c r="A126" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="K126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="M125" s="1" t="s">
+      <c r="M126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="N125" s="1" t="s">
+      <c r="N126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="Q125" s="1" t="s">
+      <c r="Q126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="R125" s="1" t="s">
+      <c r="R126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="S125" s="1" t="s">
+      <c r="S126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="T125" s="1" t="s">
+      <c r="T126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="U125" s="1" t="s">
+      <c r="U126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="V125" s="1" t="s">
+      <c r="V126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="W125" s="1" t="s">
+      <c r="W126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="X125" s="1" t="s">
+      <c r="X126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="Y125" s="1" t="s">
+      <c r="Y126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="Z125" s="1" t="s">
+      <c r="Z126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AA125" s="1" t="s">
+      <c r="AA126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AD125" s="1" t="s">
+      <c r="AD126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AE125" s="1" t="s">
+      <c r="AE126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AW125" s="1" t="s">
+      <c r="AW126" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AX125" s="1" t="s">
+      <c r="AX126" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:101">
-      <c r="A126" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="CS126" s="1">
-        <v>125</v>
-      </c>
-    </row>
     <row r="127" spans="1:101">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -6617,1043 +6578,977 @@
       </c>
     </row>
     <row r="128" spans="1:101">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="7" t="s">
         <v>189</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="S128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="T128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="U128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="V128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="W128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="X128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AW128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AX128" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="129" spans="1:107">
+      <c r="A129" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="T129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="V129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="W129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="X129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AW129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AX129" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="130" spans="1:107">
+      <c r="A130" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:107">
+      <c r="A131" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="132" spans="1:107">
+      <c r="A132" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="133" spans="1:107">
+      <c r="A133" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="134" spans="1:107">
+      <c r="A134" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="T134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="U134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="V134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="W134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="X134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AW134" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AX134" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="135" spans="1:107">
+      <c r="A135" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:107">
+      <c r="A136" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="137" spans="1:107">
+      <c r="A137" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:107">
+      <c r="A138" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:107">
+      <c r="A139" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:107">
+      <c r="A140" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="141" spans="1:107">
+      <c r="A141" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV141" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="R128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="S128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="T128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="U128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="V128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="W128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="X128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="Z128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AW128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AX128" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="129" spans="1:107">
-      <c r="A129" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="R129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="S129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="T129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="U129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="V129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="W129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="X129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AW129" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AX129" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="130" spans="1:107">
-      <c r="A130" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="R130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="S130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="T130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="U130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="V130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="W130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="X130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AE130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AW130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AX130" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="131" spans="1:107">
-      <c r="A131" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="132" spans="1:107">
-      <c r="A132" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="133" spans="1:107">
-      <c r="A133" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="P133" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="134" spans="1:107">
-      <c r="A134" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="135" spans="1:107">
-      <c r="A135" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E135" s="1" t="s">
+      <c r="AY141" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ141" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="BA141" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BB141" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BC141" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BD141" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BE141" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="CB141" s="1">
+        <v>57</v>
+      </c>
+      <c r="CN141" s="1">
+        <v>58</v>
+      </c>
+      <c r="CO141" s="1">
+        <v>76</v>
+      </c>
+      <c r="CR141" s="1">
+        <v>59</v>
+      </c>
+      <c r="CS141" s="1">
+        <v>60</v>
+      </c>
+      <c r="CT141" s="1">
+        <v>102</v>
+      </c>
+      <c r="CU141" s="1">
+        <v>104</v>
+      </c>
+      <c r="CV141" s="1">
+        <v>110</v>
+      </c>
+      <c r="CW141" s="1">
+        <v>123</v>
+      </c>
+      <c r="DB141" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="R135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="T135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="U135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="V135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="W135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="X135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="Z135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AD135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AE135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AW135" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AX135" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="136" spans="1:107">
-      <c r="A136" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="137" spans="1:107">
-      <c r="A137" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="138" spans="1:107">
-      <c r="A138" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="139" spans="1:107">
-      <c r="A139" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="140" spans="1:107">
-      <c r="A140" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="141" spans="1:107">
-      <c r="A141" s="5" t="s">
-        <v>366</v>
+      <c r="DC141" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="1:107">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>327</v>
+      <c r="E142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AV142" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AY142" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AZ142" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BA142" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BB142" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BC142" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BD142" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BE142" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="CB142" s="1">
-        <v>57</v>
-      </c>
-      <c r="CN142" s="1">
-        <v>58</v>
-      </c>
-      <c r="CO142" s="1">
-        <v>76</v>
-      </c>
-      <c r="CR142" s="1">
-        <v>59</v>
-      </c>
-      <c r="CS142" s="1">
-        <v>60</v>
-      </c>
-      <c r="CT142" s="1">
-        <v>102</v>
-      </c>
-      <c r="CU142" s="1">
-        <v>104</v>
-      </c>
-      <c r="CV142" s="1">
-        <v>110</v>
-      </c>
-      <c r="CW142" s="1">
-        <v>123</v>
-      </c>
-      <c r="DB142" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="T142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="V142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="W142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="X142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AW142" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AX142" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="143" spans="1:107">
+      <c r="A143" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:107">
+      <c r="A144" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="T144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="V144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="W144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AX144" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:97">
+      <c r="A145" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="CB145" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:97">
+      <c r="A146" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="V146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="W146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="X146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX146" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="147" spans="1:97">
+      <c r="A147" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="148" spans="1:97">
+      <c r="A148" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="CS148" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:97">
+      <c r="A149" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM149" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="150" spans="1:97">
+      <c r="A150" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="151" spans="1:97">
+      <c r="A151" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="BM151" s="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:97">
+      <c r="A152" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="V152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="W152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="X152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AW152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AX152" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="153" spans="1:97">
+      <c r="A153" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="DC142" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="143" spans="1:107">
-      <c r="A143" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="N143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="R143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="S143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="T143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="U143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="V143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="W143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="X143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AA143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AD143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AE143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AW143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AX143" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="144" spans="1:107">
-      <c r="A144" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="145" spans="1:97">
-      <c r="A145" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="S145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="T145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="U145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="V145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="W145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="X145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AW145" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AX145" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="146" spans="1:97">
-      <c r="A146" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="CB146" s="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:97">
-      <c r="A147" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="R147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="S147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="T147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="U147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="V147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="W147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="X147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AW147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AX147" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="148" spans="1:97">
-      <c r="A148" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="149" spans="1:97">
-      <c r="A149" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="CS149" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:97">
-      <c r="A150" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AM150" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="151" spans="1:97">
-      <c r="A151" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="152" spans="1:97">
-      <c r="A152" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BM152" s="4">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="153" spans="1:97">
-      <c r="A153" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E153" s="1" t="s">
+      <c r="K153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="T153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="W153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AW153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX153" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="154" spans="1:97">
+      <c r="A154" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="K153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="M153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="N153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="R153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="S153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="T153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="U153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="V153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="W153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="X153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="Z153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AD153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AW153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AX153" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="154" spans="1:97">
-      <c r="A154" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="N154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="R154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="S154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="T154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="U154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="V154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="W154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="X154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Z154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AD154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AE154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AW154" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AX154" s="1" t="s">
-        <v>395</v>
-      </c>
     </row>
     <row r="155" spans="1:97">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="7" t="s">
         <v>380</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>418</v>
       </c>
+      <c r="K155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="V155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="W155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="X155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AW155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AX155" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="156" spans="1:97">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="M156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="N156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="R156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="S156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="T156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="U156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="V156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="W156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="X156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AD156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AW156" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AX156" s="1" t="s">
-        <v>419</v>
+      <c r="H156" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="157" spans="1:97">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="CS157" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:97">
+      <c r="A158" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I158" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="158" spans="1:97">
-      <c r="A158" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CS158" s="1">
-        <v>157</v>
-      </c>
-    </row>
     <row r="159" spans="1:97">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="160" spans="1:97">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="BM160" s="1">
+        <v>161</v>
+      </c>
+      <c r="BO160" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:98">
+      <c r="A161" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="161" spans="1:98">
-      <c r="A161" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="BM161" s="1">
-        <v>161</v>
-      </c>
-      <c r="BO161" s="1">
-        <v>160</v>
+      <c r="K161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="V161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="W161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AW161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AX161" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="162" spans="1:98">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="7" t="s">
         <v>387</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="K162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="M162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="N162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="R162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="S162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="T162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="U162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="V162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="W162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="X162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AW162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AX162" s="1" t="s">
-        <v>424</v>
-      </c>
     </row>
     <row r="163" spans="1:98">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="7" t="s">
         <v>388</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>425</v>
       </c>
+      <c r="K163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="W163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="X163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AW163" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AX163" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="164" spans="1:98">
-      <c r="A164" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="K164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="M164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="N164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="R164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="S164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="T164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="U164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="V164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="W164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="X164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="Z164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AW164" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AX164" s="1" t="s">
-        <v>426</v>
+      <c r="A164" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="CT164" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:98">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="CT165" s="1">
-        <v>100</v>
-      </c>
     </row>
     <row r="166" spans="1:98">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="7" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="167" spans="1:98">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="168" spans="1:98">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="7" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="169" spans="1:98">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="7" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="170" spans="1:98">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="171" spans="1:98">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="7" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="172" spans="1:98">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="7" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="173" spans="1:98">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="7" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="174" spans="1:98">
-      <c r="A174" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:BF1"/>
-    <mergeCell ref="BG1:DD1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
